--- a/Status_Tracking_Sheet_Emp_Hafsa.xlsx
+++ b/Status_Tracking_Sheet_Emp_Hafsa.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -137,10 +137,17 @@
     <t xml:space="preserve">Using hamming code I had generated the hamming code for data and hamming decoder should correct the 1 bit error in encoded data using syndrome calculation and bit flipping</t>
   </si>
   <si>
-    <t xml:space="preserve">50% completed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AXI Slave Memory controller </t>
+    <t xml:space="preserve">AXI Slave Memory controller  verification with AXI Master Testbench </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Designed The test bench for the AXI MASTER 
+AXI Master will recepive the input related data through the traffic generator  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">40% completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traffic Generator Is class all the inputs are rand based with the help of constraints I had randomized it and send to the AXI Master </t>
   </si>
 </sst>
 </file>
@@ -259,7 +266,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -324,20 +331,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -419,8 +418,8 @@
   </sheetPr>
   <dimension ref="A1:L104"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J24" activeCellId="0" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -632,10 +631,10 @@
       <c r="G8" s="11" t="n">
         <v>45863</v>
       </c>
-      <c r="H8" s="16" t="n">
+      <c r="H8" s="11" t="n">
         <v>45867</v>
       </c>
-      <c r="I8" s="16" t="n">
+      <c r="I8" s="11" t="n">
         <v>45862</v>
       </c>
       <c r="J8" s="8" t="s">
@@ -670,25 +669,25 @@
       <c r="C10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="17" t="n">
+      <c r="D10" s="12" t="n">
         <v>45862</v>
       </c>
-      <c r="E10" s="17" t="n">
+      <c r="E10" s="12" t="n">
         <v>45863</v>
       </c>
-      <c r="F10" s="16" t="n">
+      <c r="F10" s="11" t="n">
         <v>45863</v>
       </c>
-      <c r="G10" s="17" t="n">
+      <c r="G10" s="12" t="n">
         <v>45862</v>
       </c>
-      <c r="H10" s="16" t="n">
+      <c r="H10" s="11" t="n">
         <v>45867</v>
       </c>
-      <c r="I10" s="16" t="n">
+      <c r="I10" s="11" t="n">
         <v>45862</v>
       </c>
-      <c r="J10" s="18" t="s">
+      <c r="J10" s="8" t="s">
         <v>16</v>
       </c>
       <c r="K10" s="8" t="s">
@@ -740,16 +739,16 @@
       <c r="E13" s="11" t="n">
         <v>45866</v>
       </c>
-      <c r="F13" s="16" t="n">
+      <c r="F13" s="11" t="n">
         <v>45863</v>
       </c>
-      <c r="G13" s="16" t="n">
+      <c r="G13" s="11" t="n">
         <v>45866</v>
       </c>
-      <c r="H13" s="16" t="n">
+      <c r="H13" s="11" t="n">
         <v>45867</v>
       </c>
-      <c r="I13" s="16" t="n">
+      <c r="I13" s="11" t="n">
         <v>45863</v>
       </c>
       <c r="J13" s="8" t="s">
@@ -781,7 +780,7 @@
       <c r="B15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D15" s="11" t="n">
@@ -790,16 +789,16 @@
       <c r="E15" s="11" t="n">
         <v>45866</v>
       </c>
-      <c r="F15" s="16" t="n">
+      <c r="F15" s="11" t="n">
         <v>45863</v>
       </c>
-      <c r="G15" s="16" t="n">
+      <c r="G15" s="11" t="n">
         <v>45866</v>
       </c>
-      <c r="H15" s="16" t="n">
+      <c r="H15" s="11" t="n">
         <v>45867</v>
       </c>
-      <c r="I15" s="16" t="n">
+      <c r="I15" s="11" t="n">
         <v>45863</v>
       </c>
       <c r="J15" s="8" t="s">
@@ -874,16 +873,16 @@
       <c r="E19" s="11" t="n">
         <v>45866</v>
       </c>
-      <c r="F19" s="16" t="n">
+      <c r="F19" s="11" t="n">
         <v>45866</v>
       </c>
-      <c r="G19" s="16" t="n">
+      <c r="G19" s="11" t="n">
         <v>45866</v>
       </c>
-      <c r="H19" s="16" t="n">
+      <c r="H19" s="11" t="n">
         <v>45867</v>
       </c>
-      <c r="I19" s="16" t="n">
+      <c r="I19" s="11" t="n">
         <v>45866</v>
       </c>
       <c r="J19" s="8" t="s">
@@ -912,32 +911,32 @@
       <c r="A21" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="16" t="n">
+      <c r="D21" s="11" t="n">
         <v>45866</v>
       </c>
-      <c r="E21" s="16" t="n">
+      <c r="E21" s="11" t="n">
         <v>45867</v>
       </c>
-      <c r="F21" s="16" t="n">
+      <c r="F21" s="11" t="n">
         <v>45867</v>
       </c>
-      <c r="G21" s="16" t="n">
+      <c r="G21" s="11" t="n">
         <v>45867</v>
       </c>
-      <c r="H21" s="16" t="n">
+      <c r="H21" s="11" t="n">
         <v>45867</v>
       </c>
-      <c r="I21" s="16" t="n">
+      <c r="I21" s="11" t="n">
         <v>45866</v>
       </c>
-      <c r="J21" s="18" t="s">
-        <v>35</v>
+      <c r="J21" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="K21" s="8" t="s">
         <v>17</v>
@@ -958,26 +957,48 @@
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
+      <c r="B23" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="11" t="n">
+        <v>45869</v>
+      </c>
+      <c r="E23" s="11" t="n">
+        <v>45877</v>
+      </c>
+      <c r="F23" s="17" t="n">
+        <v>45877</v>
+      </c>
+      <c r="G23" s="11" t="n">
+        <v>45879</v>
+      </c>
+      <c r="H23" s="11" t="n">
+        <v>45879</v>
+      </c>
+      <c r="I23" s="11" t="n">
+        <v>45870</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="L23" s="8"/>
     </row>
-    <row r="24" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
+      <c r="C24" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
@@ -990,9 +1011,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7"/>
-      <c r="B25" s="18" t="s">
-        <v>36</v>
-      </c>
+      <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
